--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44928</v>
+        <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45063</v>
+        <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45209</v>
+        <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44957</v>
+        <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44573</v>
+        <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,8 +1301,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1344,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45327</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1359,7 +1364,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45513</v>
+        <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1453,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44930</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1473,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1510,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45589</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1530,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1567,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42412-2025</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45905</v>
+        <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1587,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1624,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 42417-2025</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45905</v>
+        <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1644,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1681,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45762</v>
+        <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1701,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1738,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45099</v>
+        <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1758,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1795,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45327</v>
+        <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1815,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1852,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 42412-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45905</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1872,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1909,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 42417-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45762</v>
+        <v>45905</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1929,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1966,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45685</v>
+        <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1986,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2023,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45372</v>
+        <v>45513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2043,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2087,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2137,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44468</v>
+        <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2194,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45327</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2251,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45762</v>
+        <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2308,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45327</v>
+        <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2365,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45722</v>
+        <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2384,13 +2389,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45846.61351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45846.6140162037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45905</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45905</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45846.61351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45846.6140162037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45905</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45905</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45327</v>
+        <v>45209</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45762</v>
+        <v>44957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45762</v>
+        <v>44573</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45099</v>
+        <v>45327</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45722</v>
+        <v>45513</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,13 +1301,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1344,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>45722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1363,8 +1358,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44573</v>
+        <v>44930</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45589</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45685</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44928</v>
+        <v>45762</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45372</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327</v>
+        <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42412-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45905</v>
+        <v>45099</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42417-2025</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45905</v>
+        <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44930</v>
+        <v>45762</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45513</v>
+        <v>45685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45042</v>
+        <v>45372</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45327</v>
+        <v>45042</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 42412-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45209</v>
+        <v>45905</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 42417-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45589</v>
+        <v>45905</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44468</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45762</v>
+        <v>44468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2481,17 +2481,17 @@
       </c>
       <c r="R32" s="2" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,39 +2504,153 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A 18327-2025</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BÅSTAD</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A 4493-2024</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BÅSTAD</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>1.8</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45209</v>
+        <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44957</v>
+        <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44573</v>
+        <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45327</v>
+        <v>45762</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45513</v>
+        <v>45327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45722</v>
+        <v>45762</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1356,11 +1356,6 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1401,14 +1396,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44930</v>
+        <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1416,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1453,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45589</v>
+        <v>45722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1477,8 +1472,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45762</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44928</v>
+        <v>45685</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45063</v>
+        <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45099</v>
+        <v>45372</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45762</v>
+        <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45685</v>
+        <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45372</v>
+        <v>45513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45042</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>46062.52008101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42412-2025</t>
+          <t>A 42417-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42417-2025</t>
+          <t>A 42412-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45042</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44468</v>
+        <v>45327</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45327</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2541,14 +2541,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45762</v>
+        <v>45209</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45327</v>
+        <v>45589</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,41 +800,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 38013-2022</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44811</v>
+        <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -881,45 +881,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 38013-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45307</v>
+        <v>44811</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,17 +932,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -966,31 +966,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45327</v>
+        <v>44928</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44468</v>
+        <v>45063</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45762</v>
+        <v>44573</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45327</v>
+        <v>45209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45762</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1396,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45099</v>
+        <v>45513</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1453,14 +1453,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45722</v>
+        <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1472,13 +1472,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1510,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44957</v>
+        <v>44930</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1530,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1567,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44573</v>
+        <v>45589</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1587,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1624,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45327</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1644,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1681,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45722</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1705,8 +1700,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45685</v>
+        <v>45762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44928</v>
+        <v>45762</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45372</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45327</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45063</v>
+        <v>45327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44930</v>
+        <v>45685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45513</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45372</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42417-2025</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45905</v>
+        <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42412-2025</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45905</v>
+        <v>45762</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45042</v>
+        <v>45327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45327</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,65 +2447,65 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A 7727-2026</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>46062.50420138889</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BÅSTAD</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>1.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A 5817-2025</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>45694.74113425926</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
@@ -2537,120 +2537,6 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A 48974-2023</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>45209</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A 48181-2024</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>45589</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,41 +800,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 38013-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44929</v>
+        <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -847,17 +847,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -881,45 +881,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 38013-2022</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44811</v>
+        <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -966,31 +966,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44928</v>
+        <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45063</v>
+        <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44573</v>
+        <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45327</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45209</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>45722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1358,8 +1358,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45513</v>
+        <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1453,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1473,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1510,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44930</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1530,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1567,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45589</v>
+        <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1587,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1624,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45327</v>
+        <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1644,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1681,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45722</v>
+        <v>45685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1700,13 +1705,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45762</v>
+        <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45762</v>
+        <v>45372</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45327</v>
+        <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45685</v>
+        <v>45513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45372</v>
+        <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45042</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44468</v>
+        <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45762</v>
+        <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45327</v>
+        <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45722</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1244,8 +1244,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1287,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1302,7 +1307,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1344,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45722</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1358,13 +1363,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45099</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44957</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44573</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>45685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45372</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45722</v>
+        <v>45762</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1242,11 +1242,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1287,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45099</v>
+        <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1306,8 +1301,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45099</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44957</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44573</v>
+        <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45685</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45685</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44928</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45372</v>
+        <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45327</v>
+        <v>45372</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45063</v>
+        <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44930</v>
+        <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45513</v>
+        <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45042</v>
+        <v>45513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45327</v>
+        <v>45042</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45209</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45589</v>
+        <v>45209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44468</v>
+        <v>45589</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45762</v>
+        <v>44468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45327</v>
+        <v>45762</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45327</v>
+        <v>45209</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45327</v>
+        <v>44957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45762</v>
+        <v>44573</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45722</v>
+        <v>45327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,13 +1301,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1344,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45099</v>
+        <v>45513</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1364,7 +1359,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1396,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45722</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1420,8 +1415,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>44930</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44957</v>
+        <v>45589</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44573</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45685</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45762</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45372</v>
+        <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45327</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45063</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44930</v>
+        <v>45099</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45513</v>
+        <v>45327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45042</v>
+        <v>45762</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45327</v>
+        <v>45685</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45372</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45209</v>
+        <v>45042</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45589</v>
+        <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44468</v>
+        <v>45327</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45762</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45209</v>
+        <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45327</v>
+        <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44957</v>
+        <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44573</v>
+        <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45327</v>
+        <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,8 +1301,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1344,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45513</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1359,7 +1364,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45722</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1415,13 +1420,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44930</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45589</v>
+        <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45762</v>
+        <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44928</v>
+        <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45063</v>
+        <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45513</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>46062.50420138889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2028,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45099</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45327</v>
+        <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45685</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45372</v>
+        <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45042</v>
+        <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45327</v>
+        <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45846.61351851852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45846.6140162037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45513</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>46062.50420138889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>46062.52008101852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45762</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45099</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45846.61351851852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45846.6140162037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45685</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45372</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45513</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>46062.50420138889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>46062.52008101852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45042</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45209</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45589</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45327</v>
+        <v>45513</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45762</v>
+        <v>45209</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45762</v>
+        <v>44957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45099</v>
+        <v>44930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45722</v>
+        <v>45589</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,13 +1301,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1344,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1364,7 +1359,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1396,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>44928</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1416,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1453,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1473,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1510,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44573</v>
+        <v>45063</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1530,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1567,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45685</v>
+        <v>45762</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1587,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1624,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44928</v>
+        <v>45685</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1644,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1681,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45372</v>
+        <v>45327</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,7 +1701,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1743,14 +1738,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327</v>
+        <v>45372</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1758,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1795,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45063</v>
+        <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1815,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1852,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44930</v>
+        <v>45327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1872,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1909,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45513</v>
+        <v>45762</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1929,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1966,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45042</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1986,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2023,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>44468</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,7 +2043,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2080,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45042</v>
+        <v>45327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2100,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2137,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45327</v>
+        <v>45762</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2157,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2194,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2214,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2251,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45209</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2271,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2308,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45589</v>
+        <v>45722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2332,8 +2327,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44468</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45762</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45327</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45307</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,14 +912,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45513</v>
+        <v>45327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45209</v>
+        <v>45762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44957</v>
+        <v>45327</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44930</v>
+        <v>45762</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45589</v>
+        <v>45722</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1301,8 +1301,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1344,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45099</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1359,7 +1364,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44928</v>
+        <v>44957</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1453,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1473,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1510,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45063</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1530,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1567,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45762</v>
+        <v>44573</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1587,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1631,7 +1636,7 @@
         <v>45685</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1681,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45327</v>
+        <v>44928</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1701,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1745,7 +1750,7 @@
         <v>45372</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1795,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44573</v>
+        <v>45327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1815,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1852,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45327</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1872,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1909,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45762</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1929,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1966,14 +1971,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45042</v>
+        <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1986,7 +1991,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2023,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44468</v>
+        <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2043,7 +2048,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2080,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45327</v>
+        <v>45513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2137,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45762</v>
+        <v>45042</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2194,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2251,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2308,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45722</v>
+        <v>45209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,13 +2332,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45589</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>44468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45762</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,14 +827,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 38013-2022</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44811</v>
+        <v>45307</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -881,45 +881,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 38013-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45307</v>
+        <v>44811</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,17 +932,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -966,31 +966,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45327</v>
+        <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45762</v>
+        <v>45209</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45327</v>
+        <v>45589</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45762</v>
+        <v>45327</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45722</v>
+        <v>45762</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1299,11 +1299,6 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>BÅSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1344,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45099</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1364,7 +1359,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1401,14 +1396,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44957</v>
+        <v>45762</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1421,7 +1416,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1458,14 +1453,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45099</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,7 +1473,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1515,14 +1510,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,7 +1530,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1572,14 +1567,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44573</v>
+        <v>45327</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,7 +1587,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1629,14 +1624,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45685</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1649,7 +1644,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,14 +1681,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44928</v>
+        <v>45513</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1743,14 +1738,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45372</v>
+        <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,7 +1758,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1800,14 +1795,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45327</v>
+        <v>44928</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1820,7 +1815,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1857,14 +1852,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,7 +1872,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1914,14 +1909,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1934,7 +1929,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1971,14 +1966,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 18332-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45063</v>
+        <v>45762</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,7 +1986,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2028,14 +2023,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44930</v>
+        <v>45722</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2047,8 +2042,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45513</v>
+        <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45042</v>
+        <v>45372</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45327</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45209</v>
+        <v>45042</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45589</v>
+        <v>44468</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44468</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18332-2025</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45762</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 389-2023</t>
+          <t>A 1782-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44929</v>
+        <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -800,41 +800,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1782-2024</t>
+          <t>A 38013-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45307</v>
+        <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -847,17 +847,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -881,45 +881,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 1782-2024 artfynd.xlsx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 1782-2024 karta.png", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 1782-2024 FSC-klagomål.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 1782-2024 FSC-klagomål mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 1782-2024 tillsynsbegäran.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 1782-2024 tillsynsbegäran mail.docx", "A 1782-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 38013-2022</t>
+          <t>A 389-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44811</v>
+        <v>44929</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -966,31 +966,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 38013-2022 artfynd.xlsx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/artfynd/A 389-2023 artfynd.xlsx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 38013-2022 karta.png", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/kartor/A 389-2023 karta.png", "A 389-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 38013-2022 FSC-klagomål.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomål/A 389-2023 FSC-klagomål.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 38013-2022 FSC-klagomål mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/klagomålsmail/A 389-2023 FSC-klagomål mail.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 38013-2022 tillsynsbegäran.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsyn/A 389-2023 tillsynsbegäran.docx", "A 389-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 38013-2022 tillsynsbegäran mail.docx", "A 38013-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1278/tillsynsmail/A 389-2023 tillsynsbegäran mail.docx", "A 389-2023")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 635-2023</t>
+          <t>A 48974-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44930</v>
+        <v>45209</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48974-2023</t>
+          <t>A 4822-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45209</v>
+        <v>44957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1168,14 +1168,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 48181-2024</t>
+          <t>A 1531-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45589</v>
+        <v>44573</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1225,14 +1225,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4487-2024</t>
+          <t>A 4486-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45327</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 18328-2025</t>
+          <t>A 32610-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45762</v>
+        <v>45513</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1339,14 +1339,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4822-2023</t>
+          <t>A 10710-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>45722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1358,8 +1358,13 @@
           <t>BÅSTAD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1396,14 +1401,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 18327-2025</t>
+          <t>A 635-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45762</v>
+        <v>44930</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1453,14 +1458,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28260-2023</t>
+          <t>A 48181-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45099</v>
+        <v>45589</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1473,7 +1478,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1510,14 +1515,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1531-2022</t>
+          <t>A 18328-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44573</v>
+        <v>45762</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1530,7 +1535,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1567,14 +1572,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4486-2024</t>
+          <t>A 34400-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45327</v>
+        <v>45846.61351851852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1587,7 +1592,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1624,14 +1629,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5817-2025</t>
+          <t>A 34401-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45694.74113425926</v>
+        <v>45846.6140162037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1644,7 +1649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1681,14 +1686,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32610-2024</t>
+          <t>A 5817-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45513</v>
+        <v>45694.74113425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1701,7 +1706,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1738,14 +1743,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4481-2024</t>
+          <t>A 24-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327</v>
+        <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1758,7 +1763,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1795,14 +1800,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24-2023</t>
+          <t>A 21572-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44928</v>
+        <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1815,7 +1820,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1852,14 +1857,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21572-2023</t>
+          <t>A 28260-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45063</v>
+        <v>45099</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1872,7 +1877,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1909,14 +1914,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4493-2024</t>
+          <t>A 4481-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1929,7 +1934,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1973,7 +1978,7 @@
         <v>45762</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2023,14 +2028,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10710-2025</t>
+          <t>A 4256-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45722</v>
+        <v>45685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2042,13 +2047,8 @@
           <t>BÅSTAD</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2085,14 +2085,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4256-2025</t>
+          <t>A 7731-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45685</v>
+        <v>46062.52008101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11517-2024</t>
+          <t>A 7727-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45372</v>
+        <v>46062.50420138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 34400-2025</t>
+          <t>A 11517-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45846.61351851852</v>
+        <v>45372</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34401-2025</t>
+          <t>A 18434-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45846.6140162037</v>
+        <v>45042</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18434-2023</t>
+          <t>A 53131-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45042</v>
+        <v>44468</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53131-2021</t>
+          <t>A 4487-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44468</v>
+        <v>45327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7731-2026</t>
+          <t>A 18327-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46062.52008101852</v>
+        <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7727-2026</t>
+          <t>A 4493-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46062.50420138889</v>
+        <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>

--- a/Översikt BÅSTAD.xlsx
+++ b/Översikt BÅSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44945</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45762</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45307</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44929</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44361</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45209</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44573</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45327</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45513</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44930</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45589</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45762</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45846.61351851852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45846.6140162037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45694.74113425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45063</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45099</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>45762</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>46062.52008101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>46062.50420138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45372</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45042</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44468</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
